--- a/hangtagSample.xlsx
+++ b/hangtagSample.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peggy.huang/rou94980-HangtagChangePage/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5953B2-FD73-9845-86F0-34358C2CD3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="18000" yWindow="2560" windowWidth="20400" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SampleWorksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="SampleWorksheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="20"/>
         <color indexed="8"/>
         <rFont val="AGaramond"/>
@@ -25,7 +34,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="20"/>
         <color indexed="8"/>
         <rFont val="AGaramond"/>
@@ -90,6 +99,7 @@
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>☑</t>
     </r>
@@ -98,6 +108,7 @@
         <sz val="14"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Photo samples</t>
     </r>
@@ -111,6 +122,8 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>□</t>
     </r>
@@ -119,6 +132,7 @@
         <sz val="14"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Yes  ☑  No</t>
     </r>
@@ -139,35 +153,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="新細明體"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="20"/>
       <color indexed="8"/>
       <name val="AGaramond"/>
     </font>
     <font>
-      <b val="1"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="20"/>
       <color indexed="8"/>
       <name val="AGaramond"/>
@@ -176,51 +177,68 @@
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="22"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Wawati TC"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -237,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -410,222 +428,200 @@
         <color indexed="10"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
+      <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffae62"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFAE62"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office 佈景主題">
       <a:dk1>
@@ -827,7 +823,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -845,7 +841,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -874,7 +870,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -899,7 +895,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -924,7 +920,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -949,7 +945,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -974,7 +970,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -999,7 +995,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1024,7 +1020,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1049,7 +1045,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1074,7 +1070,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1087,9 +1083,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1106,7 +1108,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1124,7 +1126,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1149,7 +1151,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1174,7 +1176,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1199,7 +1201,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1224,7 +1226,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1249,7 +1251,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1274,7 +1276,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1299,7 +1301,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1324,7 +1326,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1349,7 +1351,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1362,9 +1364,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1378,7 +1386,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1396,7 +1404,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1425,7 +1433,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1450,7 +1458,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1475,7 +1483,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1500,7 +1508,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1525,7 +1533,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1550,7 +1558,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1575,7 +1583,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1600,7 +1608,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1625,7 +1633,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1638,282 +1646,293 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.35156" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" ht="22.5" customHeight="1">
-      <c r="A4" t="s" s="11">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="6">
         <v>45360</v>
       </c>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" ht="22.5" customHeight="1">
-      <c r="A5" t="s" s="11">
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s" s="13">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" ht="22.5" customHeight="1">
-      <c r="A6" t="s" s="11">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="13">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" ht="22.5" customHeight="1">
-      <c r="A7" t="s" s="11">
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="13">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" ht="22.5" customHeight="1">
-      <c r="A8" t="s" s="11">
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="8">
         <v>544991</v>
       </c>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" ht="22.5" customHeight="1">
-      <c r="A9" t="s" s="11">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="13">
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" ht="22.5" customHeight="1">
-      <c r="A10" t="s" s="11">
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s" s="13">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" ht="22.5" customHeight="1">
-      <c r="A11" t="s" s="15">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s" s="13">
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" ht="22.5" customHeight="1">
-      <c r="A12" t="s" s="11">
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s" s="13">
+      <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" ht="22.5" customHeight="1">
-      <c r="A13" t="s" s="11">
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1">
-      <c r="A14" t="s" s="17">
+      <c r="B13" s="10"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1">
-      <c r="A15" t="s" s="19">
+      <c r="B14" s="12"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s" s="20">
+      <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" ht="22.5" customHeight="1">
-      <c r="A16" t="s" s="19">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s" s="20">
+      <c r="B16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" ht="22.5" customHeight="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-    </row>
-    <row r="19" ht="30.75" customHeight="1">
-      <c r="A19" t="s" s="25">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="1:3" ht="30.75" customHeight="1">
+      <c r="A19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-    </row>
-    <row r="20" ht="22.5" customHeight="1">
-      <c r="A20" t="s" s="11">
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" ht="17.25" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" ht="17.25" customHeight="1">
-      <c r="A22" s="28"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-    </row>
-    <row r="23" ht="17.25" customHeight="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-    </row>
-    <row r="24" ht="17.25" customHeight="1">
-      <c r="A24" s="28"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" ht="17.25" customHeight="1">
-      <c r="A25" s="28"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-    </row>
-    <row r="26" ht="17.25" customHeight="1">
-      <c r="A26" s="28"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="27" ht="17.25" customHeight="1">
-      <c r="A27" s="28"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-    </row>
-    <row r="28" ht="17.25" customHeight="1">
-      <c r="A28" s="28"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-    </row>
-    <row r="29" ht="17.25" customHeight="1">
-      <c r="A29" s="28"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-    </row>
-    <row r="30" ht="17.25" customHeight="1">
-      <c r="A30" s="28"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-    </row>
-    <row r="31" ht="17.25" customHeight="1">
-      <c r="A31" s="28"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-    </row>
-    <row r="32" ht="17.25" customHeight="1">
-      <c r="A32" s="28"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-    </row>
-    <row r="33" ht="17.25" customHeight="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-    </row>
-    <row r="34" ht="24" customHeight="1">
-      <c r="A34" t="s" s="30">
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A22" s="22"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A23" s="22"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A24" s="22"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A25" s="22"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A26" s="22"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A27" s="22"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A28" s="22"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A29" s="22"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A30" s="22"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A31" s="22"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A32" s="22"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A33" s="23"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1">
+      <c r="A34" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-    </row>
-    <row r="35" ht="17.25" customHeight="1">
-      <c r="A35" s="33"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="35"/>
-    </row>
-    <row r="36" ht="17.25" customHeight="1">
-      <c r="A36" s="36"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="38"/>
-    </row>
-    <row r="37" ht="17.25" customHeight="1">
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+    </row>
+    <row r="35" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A35" s="27"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
+    </row>
+    <row r="36" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="29"/>
+    </row>
+    <row r="37" spans="1:3" ht="17.25" customHeight="1">
       <c r="A37" s="39"/>
       <c r="B37" s="40"/>
-      <c r="C37" s="41"/>
-    </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="42"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="44"/>
+      <c r="C37" s="29"/>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1" thickBot="1">
+      <c r="A38" s="30"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C2"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="59" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup scale="59" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/hangtagSample.xlsx
+++ b/hangtagSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peggy.huang/rou94980-HangtagChangePage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5953B2-FD73-9845-86F0-34358C2CD3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923D0F0D-78C4-9D4D-8071-684BDB8950FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18000" yWindow="2560" windowWidth="20400" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -255,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -394,12 +394,61 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="8"/>
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -408,28 +457,19 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -480,32 +520,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -526,13 +547,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1667,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1681,16 +1723,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1">
       <c r="A3" s="2"/>
@@ -1894,37 +1936,37 @@
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A33" s="23"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
+    <row r="33" spans="1:3" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A33" s="22"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
     </row>
     <row r="35" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A35" s="27"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="29"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="36"/>
     </row>
     <row r="36" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="29"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="36"/>
     </row>
     <row r="37" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A37" s="39"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="29"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="36"/>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="30"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/hangtagSample.xlsx
+++ b/hangtagSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peggy.huang/rou94980-HangtagChangePage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923D0F0D-78C4-9D4D-8071-684BDB8950FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C530A44-EE53-0248-A1EA-5175F0B2DE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18000" yWindow="2560" windowWidth="20400" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53080" yWindow="1560" windowWidth="20400" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleWorksheet" sheetId="1" r:id="rId1"/>
@@ -529,6 +529,36 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,36 +576,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1709,7 +1709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -1723,16 +1723,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1">
       <c r="A3" s="2"/>
@@ -1942,31 +1942,31 @@
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
     </row>
     <row r="35" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A35" s="35"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="23"/>
-      <c r="C35" s="36"/>
+      <c r="C35" s="30"/>
     </row>
     <row r="36" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A36" s="37"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="25"/>
-      <c r="C36" s="36"/>
+      <c r="C36" s="30"/>
     </row>
     <row r="37" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A37" s="38"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="24"/>
-      <c r="C37" s="36"/>
+      <c r="C37" s="30"/>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="39"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="41"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
